--- a/training/output/LRSADTLM/P/P2_P1.xlsx
+++ b/training/output/LRSADTLM/P/P2_P1.xlsx
@@ -447,42 +447,42 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9594298245614035</v>
+        <v>0.9725877192982456</v>
       </c>
       <c r="B2" t="n">
-        <v>1.568564596929048</v>
+        <v>1.532587314906873</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9846491228070176</v>
       </c>
       <c r="B3" t="n">
-        <v>1.480694216594362</v>
+        <v>1.473880567048725</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9846491228070176</v>
+        <v>0.9769736842105263</v>
       </c>
       <c r="B4" t="n">
-        <v>1.440226554870605</v>
+        <v>1.438207632616947</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9780701754385965</v>
+        <v>0.981359649122807</v>
       </c>
       <c r="B5" t="n">
-        <v>1.4136947477073</v>
+        <v>1.408743504892316</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.981359649122807</v>
+        <v>0.9835526315789473</v>
       </c>
       <c r="B6" t="n">
-        <v>1.416781655529089</v>
+        <v>1.419308670780115</v>
       </c>
     </row>
     <row r="7">
@@ -490,15 +490,15 @@
         <v>0.9846491228070176</v>
       </c>
       <c r="B7" t="n">
-        <v>1.415102174407557</v>
+        <v>1.417434529254311</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9835526315789473</v>
       </c>
       <c r="B8" t="n">
-        <v>1.414154598587438</v>
+        <v>1.415319658162301</v>
       </c>
     </row>
     <row r="9">
@@ -506,15 +506,15 @@
         <v>0.9857456140350878</v>
       </c>
       <c r="B9" t="n">
-        <v>1.406752776681331</v>
+        <v>1.411529595391792</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9835526315789473</v>
+        <v>0.9879385964912281</v>
       </c>
       <c r="B10" t="n">
-        <v>1.400286053356371</v>
+        <v>1.399699884548522</v>
       </c>
     </row>
     <row r="11">
@@ -522,727 +522,727 @@
         <v>0.9780701754385965</v>
       </c>
       <c r="B11" t="n">
-        <v>1.440614344780905</v>
+        <v>1.437013485975433</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.981359649122807</v>
+        <v>0.9868421052631579</v>
       </c>
       <c r="B12" t="n">
-        <v>1.408453301379555</v>
+        <v>1.405612905820211</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9857456140350878</v>
       </c>
       <c r="B13" t="n">
-        <v>1.409084071192825</v>
+        <v>1.409823697909974</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9857456140350878</v>
       </c>
       <c r="B14" t="n">
-        <v>1.405264365045648</v>
+        <v>1.406938759904159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9923245614035088</v>
       </c>
       <c r="B15" t="n">
-        <v>1.398656529292726</v>
+        <v>1.399710625932928</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9846491228070176</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="B16" t="n">
-        <v>1.399507476572405</v>
+        <v>1.399558694739091</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9846491228070176</v>
+        <v>0.9879385964912281</v>
       </c>
       <c r="B17" t="n">
-        <v>1.392810141831114</v>
+        <v>1.393332404002809</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9846491228070176</v>
+        <v>0.9890350877192983</v>
       </c>
       <c r="B18" t="n">
-        <v>1.394380351953339</v>
+        <v>1.39480155392697</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9846491228070176</v>
+        <v>0.9890350877192983</v>
       </c>
       <c r="B19" t="n">
-        <v>1.395845402751053</v>
+        <v>1.398334294034724</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9868421052631579</v>
       </c>
       <c r="B20" t="n">
-        <v>1.441905651176185</v>
+        <v>1.435776976116917</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9802631578947368</v>
+        <v>0.981359649122807</v>
       </c>
       <c r="B21" t="n">
-        <v>1.412377102333203</v>
+        <v>1.42020903553879</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9857456140350878</v>
+        <v>0.9846491228070176</v>
       </c>
       <c r="B22" t="n">
-        <v>1.403346988192776</v>
+        <v>1.410606210691887</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9539473684210527</v>
+        <v>0.9846491228070176</v>
       </c>
       <c r="B23" t="n">
-        <v>1.394419847873219</v>
+        <v>1.39673980495386</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9879385964912281</v>
       </c>
       <c r="B24" t="n">
-        <v>1.395577024995235</v>
+        <v>1.398082245860183</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9572368421052632</v>
+        <v>0.9879385964912281</v>
       </c>
       <c r="B25" t="n">
-        <v>1.402223530568575</v>
+        <v>1.401750564575195</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9692982456140351</v>
+        <v>0.9879385964912281</v>
       </c>
       <c r="B26" t="n">
-        <v>1.394156916099682</v>
+        <v>1.393482105773792</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9703947368421053</v>
+        <v>0.9879385964912281</v>
       </c>
       <c r="B27" t="n">
-        <v>1.393890173811662</v>
+        <v>1.393581233526531</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9649122807017544</v>
+        <v>0.9879385964912281</v>
       </c>
       <c r="B28" t="n">
-        <v>1.395713712039747</v>
+        <v>1.394912008653607</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9627192982456141</v>
+        <v>0.9890350877192983</v>
       </c>
       <c r="B29" t="n">
-        <v>1.394111386516638</v>
+        <v>1.392250747011419</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9682017543859649</v>
+        <v>0.9890350877192983</v>
       </c>
       <c r="B30" t="n">
-        <v>1.39554388481274</v>
+        <v>1.396084059748733</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9879385964912281</v>
       </c>
       <c r="B31" t="n">
-        <v>1.392650836392453</v>
+        <v>1.396773200286062</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9725877192982456</v>
+        <v>0.9857456140350878</v>
       </c>
       <c r="B32" t="n">
-        <v>1.392072361812257</v>
+        <v>1.394248746989066</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9692982456140351</v>
+        <v>0.9846491228070176</v>
       </c>
       <c r="B33" t="n">
-        <v>1.39214541410145</v>
+        <v>1.391537206214771</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9901315789473685</v>
       </c>
       <c r="B34" t="n">
-        <v>1.395606434136106</v>
+        <v>1.397291068445172</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.981359649122807</v>
+        <v>0.9901315789473685</v>
       </c>
       <c r="B35" t="n">
-        <v>1.400475037725348</v>
+        <v>1.400477076831617</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9703947368421053</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="B36" t="n">
-        <v>1.394194761912028</v>
+        <v>1.395832237444426</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9890350877192983</v>
       </c>
       <c r="B37" t="n">
-        <v>1.392862449612534</v>
+        <v>1.393713122919986</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.981359649122807</v>
+        <v>0.9890350877192983</v>
       </c>
       <c r="B38" t="n">
-        <v>1.390520721151118</v>
+        <v>1.390560313274986</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.981359649122807</v>
+        <v>0.9890350877192983</v>
       </c>
       <c r="B39" t="n">
-        <v>1.390257473577533</v>
+        <v>1.38993745937682</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9901315789473685</v>
       </c>
       <c r="B40" t="n">
-        <v>1.39325071217721</v>
+        <v>1.393569716236048</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9835526315789473</v>
       </c>
       <c r="B41" t="n">
-        <v>1.38904585336384</v>
+        <v>1.388987936471638</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9682017543859649</v>
+        <v>0.9868421052631579</v>
       </c>
       <c r="B42" t="n">
-        <v>1.390066498204281</v>
+        <v>1.390239562904626</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9703947368421053</v>
+        <v>0.9890350877192983</v>
       </c>
       <c r="B43" t="n">
-        <v>1.390304157608434</v>
+        <v>1.390352930938988</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9714912280701754</v>
+        <v>0.9890350877192983</v>
       </c>
       <c r="B44" t="n">
-        <v>1.399412583886531</v>
+        <v>1.395346570433232</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9901315789473685</v>
       </c>
       <c r="B45" t="n">
-        <v>1.392760847744189</v>
+        <v>1.390450567529913</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9802631578947368</v>
+        <v>0.9890350877192983</v>
       </c>
       <c r="B46" t="n">
-        <v>1.39173550354807</v>
+        <v>1.389820347752488</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9890350877192983</v>
       </c>
       <c r="B47" t="n">
-        <v>1.395179589589437</v>
+        <v>1.392684884238661</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9879385964912281</v>
       </c>
       <c r="B48" t="n">
-        <v>1.393310423482928</v>
+        <v>1.396550577983522</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9890350877192983</v>
       </c>
       <c r="B49" t="n">
-        <v>1.392281912920768</v>
+        <v>1.391694271773623</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9769736842105263</v>
+        <v>0.9890350877192983</v>
       </c>
       <c r="B50" t="n">
-        <v>1.39088277231183</v>
+        <v>1.389945243534289</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9769736842105263</v>
+        <v>0.9890350877192983</v>
       </c>
       <c r="B51" t="n">
-        <v>1.391558021829839</v>
+        <v>1.391393427263226</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9769736842105263</v>
+        <v>0.9879385964912281</v>
       </c>
       <c r="B52" t="n">
-        <v>1.393570487959343</v>
+        <v>1.392731672839115</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9802631578947368</v>
+        <v>0.9890350877192983</v>
       </c>
       <c r="B53" t="n">
-        <v>1.392755610901013</v>
+        <v>1.390444573603178</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B54" t="n">
-        <v>1.395705794033251</v>
+        <v>1.398384882692705</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="B55" t="n">
-        <v>1.394512080309684</v>
+        <v>1.397428125665899</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="B56" t="n">
-        <v>1.396599830242625</v>
+        <v>1.395005067189534</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9967105263157895</v>
       </c>
       <c r="B57" t="n">
-        <v>1.391123167255468</v>
+        <v>1.390287512227109</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9846491228070176</v>
+        <v>0.9923245614035088</v>
       </c>
       <c r="B58" t="n">
-        <v>1.389346170843693</v>
+        <v>1.388904347754361</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9802631578947368</v>
+        <v>0.9923245614035088</v>
       </c>
       <c r="B59" t="n">
-        <v>1.389420636913233</v>
+        <v>1.389052637836389</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9923245614035088</v>
       </c>
       <c r="B60" t="n">
-        <v>1.444698260541548</v>
+        <v>1.427375111663551</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9879385964912281</v>
       </c>
       <c r="B61" t="n">
-        <v>1.388954813020271</v>
+        <v>1.391624977714137</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9802631578947368</v>
+        <v>0.9890350877192983</v>
       </c>
       <c r="B62" t="n">
-        <v>1.389805908788714</v>
+        <v>1.392453421626175</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9747807017543859</v>
+        <v>0.9923245614035088</v>
       </c>
       <c r="B63" t="n">
-        <v>1.396532707047044</v>
+        <v>1.397895072635851</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9923245614035088</v>
       </c>
       <c r="B64" t="n">
-        <v>1.388548365810461</v>
+        <v>1.3894408690302</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9923245614035088</v>
       </c>
       <c r="B65" t="n">
-        <v>1.391925339113202</v>
+        <v>1.391744256019592</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9780701754385965</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="B66" t="n">
-        <v>1.413504633987159</v>
+        <v>1.415643792403372</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.981359649122807</v>
       </c>
       <c r="B67" t="n">
-        <v>1.392510269817553</v>
+        <v>1.39247925657975</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9868421052631579</v>
       </c>
       <c r="B68" t="n">
-        <v>1.389286988659909</v>
+        <v>1.389433816859597</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9649122807017544</v>
+        <v>0.9868421052631579</v>
       </c>
       <c r="B69" t="n">
-        <v>1.388978644421226</v>
+        <v>1.388896848026075</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9660087719298246</v>
+        <v>0.9879385964912281</v>
       </c>
       <c r="B70" t="n">
-        <v>1.389325359411407</v>
+        <v>1.389016803942229</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9835526315789473</v>
+        <v>0.9879385964912281</v>
       </c>
       <c r="B71" t="n">
-        <v>1.399614739836308</v>
+        <v>1.40185899274391</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9846491228070176</v>
+        <v>0.9879385964912281</v>
       </c>
       <c r="B72" t="n">
-        <v>1.389952778816223</v>
+        <v>1.390896012908534</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9835526315789473</v>
+        <v>0.9890350877192983</v>
       </c>
       <c r="B73" t="n">
-        <v>1.439614572023091</v>
+        <v>1.449579019295542</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.981359649122807</v>
+        <v>0.9890350877192983</v>
       </c>
       <c r="B74" t="n">
-        <v>1.390964271729453</v>
+        <v>1.404460921622159</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="B75" t="n">
-        <v>1.392747621787222</v>
+        <v>1.395848822175411</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.981359649122807</v>
+        <v>0.9923245614035088</v>
       </c>
       <c r="B76" t="n">
-        <v>1.389255806019432</v>
+        <v>1.389853552768105</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="B77" t="n">
-        <v>1.389723280019928</v>
+        <v>1.390680959350184</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9769736842105263</v>
+        <v>0.9890350877192983</v>
       </c>
       <c r="B78" t="n">
-        <v>1.391607248992251</v>
+        <v>1.394733715475651</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9780701754385965</v>
+        <v>0.9890350877192983</v>
       </c>
       <c r="B79" t="n">
-        <v>1.392055095287791</v>
+        <v>1.3922993739446</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9901315789473685</v>
       </c>
       <c r="B80" t="n">
-        <v>1.390580530752215</v>
+        <v>1.390815634476511</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9879385964912281</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="B81" t="n">
-        <v>1.429240237202561</v>
+        <v>1.429580274381136</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9857456140350878</v>
+        <v>0.9978070175438597</v>
       </c>
       <c r="B82" t="n">
-        <v>1.392219317586799</v>
+        <v>1.398411512374878</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9978070175438597</v>
       </c>
       <c r="B83" t="n">
-        <v>1.388471480001483</v>
+        <v>1.38988034767017</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9978070175438597</v>
       </c>
       <c r="B84" t="n">
-        <v>1.397739111331471</v>
+        <v>1.394531800035845</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9978070175438597</v>
       </c>
       <c r="B85" t="n">
-        <v>1.389603495597839</v>
+        <v>1.388737950408668</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9978070175438597</v>
       </c>
       <c r="B86" t="n">
-        <v>1.390791483092726</v>
+        <v>1.39096931198187</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9978070175438597</v>
       </c>
       <c r="B87" t="n">
-        <v>1.388526370650843</v>
+        <v>1.388455403478522</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9978070175438597</v>
       </c>
       <c r="B88" t="n">
-        <v>1.428083137462014</v>
+        <v>1.433551623110186</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9846491228070176</v>
+        <v>0.9967105263157895</v>
       </c>
       <c r="B89" t="n">
-        <v>1.389914021157382</v>
+        <v>1.390090208304556</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9846491228070176</v>
+        <v>0.9978070175438597</v>
       </c>
       <c r="B90" t="n">
-        <v>1.394257675137436</v>
+        <v>1.392205018746225</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9835526315789473</v>
+        <v>0.9978070175438597</v>
       </c>
       <c r="B91" t="n">
-        <v>1.391051355161165</v>
+        <v>1.394323447294403</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9923245614035088</v>
       </c>
       <c r="B92" t="n">
-        <v>1.388297292224148</v>
+        <v>1.388323932363276</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9923245614035088</v>
       </c>
       <c r="B93" t="n">
-        <v>1.389283238795766</v>
+        <v>1.389150437555815</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.993421052631579</v>
       </c>
       <c r="B94" t="n">
-        <v>1.388569277629518</v>
+        <v>1.388736701848214</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.993421052631579</v>
       </c>
       <c r="B95" t="n">
-        <v>1.390805470316034</v>
+        <v>1.3896269986504</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9857456140350878</v>
+        <v>0.993421052631579</v>
       </c>
       <c r="B96" t="n">
-        <v>1.387629076054222</v>
+        <v>1.387658717339499</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.993421052631579</v>
       </c>
       <c r="B97" t="n">
-        <v>1.391697843869527</v>
+        <v>1.38953329387464</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.993421052631579</v>
       </c>
       <c r="B98" t="n">
-        <v>1.390880049320689</v>
+        <v>1.395326982464707</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.981359649122807</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="B99" t="n">
-        <v>1.390981433684366</v>
+        <v>1.393999480364615</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9780701754385965</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="B100" t="n">
-        <v>1.392208247853999</v>
+        <v>1.390789958468655</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9835526315789473</v>
+        <v>0.9923245614035088</v>
       </c>
       <c r="B101" t="n">
-        <v>1.38789263106229</v>
+        <v>1.388111436576174</v>
       </c>
     </row>
   </sheetData>
